--- a/semester 4/Bahasa Inggris IV/kelompok/PO RisingSunIT.xlsx
+++ b/semester 4/Bahasa Inggris IV/kelompok/PO RisingSunIT.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\semester 4\bahasa inggris\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UNPAM-File\semester 4\Bahasa Inggris IV\kelompok\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EF50AF-5A33-4786-B68F-FBC528401AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase Order" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,9 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>PURCHASE ORDER</t>
   </si>
@@ -56,6 +57,72 @@
   </si>
   <si>
     <t>NOMOR PO</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>COMPANY NAME</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            SHIPPING TERMS</t>
+  </si>
+  <si>
+    <t>SHIPPING METHOD</t>
+  </si>
+  <si>
+    <t>SHIPPING DATE</t>
+  </si>
+  <si>
+    <t>Product Code</t>
+  </si>
+  <si>
+    <t>Product Description</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Please make payment max. 30 days after this PO was sent</t>
+  </si>
+  <si>
+    <t>Note :</t>
+  </si>
+  <si>
+    <t>Piece (%)</t>
+  </si>
+  <si>
+    <t>Tax (%)</t>
+  </si>
+  <si>
+    <t>Shipping Cost (Rp)</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>Aisyah Mawar Kusuma Salsabila</t>
+  </si>
+  <si>
+    <t>Rizky Febriansyah</t>
+  </si>
+  <si>
+    <t>PT. RisingSun IT</t>
+  </si>
+  <si>
+    <t>JL.Sudirman No 100 Kel Gunung Sindur, Kec Setu Kota Jakarta Selatan 13469</t>
+  </si>
+  <si>
+    <t>0813-8983-4951</t>
   </si>
   <si>
     <r>
@@ -69,9 +136,9 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">JL.Sudirman No 100 Kel Gunung Sindur, Kec Setu Kota Jakarta Selatan 13469
+      <t>JL.Sudirman No 100 Kel Gunung Sindur, Kec Setu Kota Jakarta Selatan 13469
 0813-8983-4951
-</t>
+r</t>
     </r>
     <r>
       <rPr>
@@ -80,7 +147,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Risingsunit00@gmail.com</t>
+      <t>isingsunit100@gmail.com</t>
     </r>
     <r>
       <rPr>
@@ -95,61 +162,28 @@
     </r>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>COMPANY NAME</t>
-  </si>
-  <si>
-    <t>ADDRESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            SHIPPING TERMS</t>
-  </si>
-  <si>
-    <t>SHIPPING METHOD</t>
-  </si>
-  <si>
-    <t>SHIPPING DATE</t>
-  </si>
-  <si>
-    <t>Product Code</t>
-  </si>
-  <si>
-    <t>Product Description</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Please make payment max. 30 days after this PO was sent</t>
-  </si>
-  <si>
-    <t>Note :</t>
-  </si>
-  <si>
-    <t>Piece (%)</t>
-  </si>
-  <si>
-    <t>Tax (%)</t>
-  </si>
-  <si>
-    <t>Shipping Cost (Rp)</t>
-  </si>
-  <si>
-    <t>Package</t>
+    <t>risingsunit100@gmail.com</t>
+  </si>
+  <si>
+    <t>l. Criwasta No. 277, Wargasari, Kec. Buah Batu, Bandung City, West Java 40287, Indonesia.</t>
+  </si>
+  <si>
+    <t>PT. Warna Java Nusa</t>
+  </si>
+  <si>
+    <t>0851-5799-1482</t>
+  </si>
+  <si>
+    <t>warnajavanusa@gmail.com</t>
+  </si>
+  <si>
+    <t>Uniform short sleeves</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -431,7 +465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -441,9 +475,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -554,6 +585,69 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -590,65 +684,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -974,11 +1011,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B38" sqref="B38:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -996,521 +1033,580 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="73"/>
+      <c r="D1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="14"/>
+      <c r="F3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-    </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="15"/>
-      <c r="F3" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="24" t="s">
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="14"/>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="84">
+        <v>44720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="40" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="15"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="25" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="31"/>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" spans="1:8" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="75"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:8" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16" spans="1:8" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="30"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="79"/>
+      <c r="E21" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
+      <c r="B22" s="16">
         <v>1</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="32"/>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="33"/>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="33"/>
-    </row>
-    <row r="11" spans="1:8" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="34"/>
-    </row>
-    <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="35"/>
-    </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="34"/>
-    </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="34"/>
-    </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="33"/>
-    </row>
-    <row r="16" spans="1:8" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="34"/>
-    </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="27"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="30"/>
-    </row>
-    <row r="19" spans="1:8" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="31"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="30"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="30"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19" t="str">
+      <c r="C22" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="71"/>
+      <c r="E22" s="16">
+        <v>6</v>
+      </c>
+      <c r="F22" s="17">
+        <v>145000</v>
+      </c>
+      <c r="G22" s="18">
         <f>IF(E22*F22=0,"",(E22*F22))</f>
-        <v/>
-      </c>
-      <c r="H22" s="30"/>
+        <v>870000</v>
+      </c>
+      <c r="H22" s="29"/>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="30"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="29"/>
     </row>
     <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19" t="str">
+      <c r="A24" s="29"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18" t="str">
         <f t="shared" ref="G24:G35" si="0">IF(E24*F24=0,"",(E24*F24))</f>
         <v/>
       </c>
-      <c r="H24" s="30"/>
+      <c r="H24" s="29"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19" t="str">
+      <c r="A25" s="29"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H25" s="30"/>
+      <c r="H25" s="29"/>
     </row>
     <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19" t="str">
+      <c r="A26" s="29"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H26" s="30"/>
+      <c r="H26" s="29"/>
     </row>
     <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19" t="str">
+      <c r="A27" s="29"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H27" s="30"/>
+      <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19" t="str">
+      <c r="A28" s="29"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H28" s="30"/>
+      <c r="H28" s="29"/>
     </row>
     <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19" t="str">
+      <c r="A29" s="29"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H29" s="30"/>
+      <c r="H29" s="29"/>
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19" t="str">
+      <c r="A30" s="29"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H30" s="30"/>
+      <c r="H30" s="29"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19" t="str">
+      <c r="A31" s="29"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H31" s="30"/>
+      <c r="H31" s="29"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19" t="str">
+      <c r="A32" s="29"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H32" s="30"/>
+      <c r="H32" s="29"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="19" t="str">
+      <c r="A33" s="29"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H33" s="30"/>
+      <c r="H33" s="29"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="19" t="str">
+      <c r="A34" s="29"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H34" s="30"/>
+      <c r="H34" s="29"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="38" t="str">
+      <c r="A35" s="29"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H35" s="30"/>
+      <c r="H35" s="29"/>
     </row>
     <row r="36" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="30"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="29"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="80" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="64"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="57"/>
+      <c r="G37" s="38">
+        <v>870000</v>
+      </c>
+      <c r="H37" s="29"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="29"/>
+      <c r="B38" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="80"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="73"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="30"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="30"/>
-      <c r="B38" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="78"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="10" t="s">
+      <c r="F38" s="10"/>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="29"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="29"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="30"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="10" t="s">
+      <c r="F39" s="10"/>
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="29"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="29"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="30"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="75"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="30"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="29"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="20" t="s">
+      <c r="A41" s="29"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="30"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="11">
+        <v>870000</v>
+      </c>
+      <c r="H41" s="29"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="30"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="30"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="29"/>
     </row>
     <row r="43" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="68"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="30"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B1:C4"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="E12:G13"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="A43:G43"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B10:C10"/>
@@ -1527,26 +1623,12 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B1:C4"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="E12:G13"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E10:G10"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E17" r:id="rId1" xr:uid="{95B9A3AF-1995-4695-95F1-EE736FC5B7D4}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>